--- a/biology/Origine et évolution du vivant/Joseph_Felsenstein/Joseph_Felsenstein.xlsx
+++ b/biology/Origine et évolution du vivant/Joseph_Felsenstein/Joseph_Felsenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph (« Joe ») Felsenstein, né le 9 mai 1942[1], est un phylogénéticien et biologiste de l'évolution américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph (« Joe ») Felsenstein, né le 9 mai 1942, est un phylogénéticien et biologiste de l'évolution américain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il appartient à l'école de phylogénétique statistique issue de la taxonomie numérique[a].
 </t>
@@ -542,9 +556,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, il obtient le 29e Prix international de biologie[1] attribué par la Société japonaise pour la promotion de la science.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, il obtient le 29e Prix international de biologie attribué par la Société japonaise pour la promotion de la science.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>[Felsenstein 2001] (en) Joseph Felsenstein, « The troubled growth of statistical phylogenetics », Systematic Biology, vol. 50, no 4,‎ 1er août 2001, p. 465-467 (ISSN 1063-5157, DOI 10.1080/10635150119297, lire en ligne [PDF])</t>
         </is>
